--- a/Переезд баз по нодам.xlsx
+++ b/Переезд баз по нодам.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1С\ЕЦИС БУ\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVELOP\git1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <sheet name="ЗКГУКОРП" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$1:$E$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$1:$E$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ЦБУ!$A$1:$C$68</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -2013,7 +2013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2047,12 +2047,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2090,6 +2084,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2451,10 +2457,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7227,19 +7233,26 @@
         <v>404</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B281" s="8" t="s">
+    <row r="281" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="28"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="29"/>
+      <c r="E281" s="29"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C282" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E282" t="s">
         <v>397</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E281"/>
+  <autoFilter ref="A1:E282"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -7291,7 +7304,7 @@
       <c r="B3" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7302,7 +7315,7 @@
       <c r="B4" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7324,7 +7337,7 @@
       <c r="B6" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7379,7 +7392,7 @@
       <c r="B11" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7533,7 +7546,7 @@
       <c r="B25" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>447</v>
       </c>
     </row>
@@ -7555,7 +7568,7 @@
       <c r="B27" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7577,7 +7590,7 @@
       <c r="B29" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7698,7 +7711,7 @@
       <c r="B40" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7742,7 +7755,7 @@
       <c r="B44" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8034,46 +8047,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="26" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>223</v>
       </c>
     </row>
@@ -8102,636 +8115,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>4825006018</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>4825033501</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <f t="shared" ref="A4:A53" si="0">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>4826036600</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>4824005237</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>4825005085</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>4826010874</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>4823007866</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>4826005850</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>4816003395</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>4826022414</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>4823004992</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>4826011130</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>4824010276</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>4826009773</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>4824015130</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>4824051226</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>4823004142</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>4823004142</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>4821004010</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>4821011419</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>4821004891</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <v>4821004193</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="17">
         <v>4821011842</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>4807001835</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="17">
         <v>4821004436</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="17">
         <v>4821010849</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="17">
         <v>4825008209</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="17">
         <v>4826012663</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="17">
         <v>4825006040</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="17">
         <v>4826008755</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="17">
         <v>4824006872</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="17">
         <v>4826008811</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <v>4801015214</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="17">
         <v>4802003719</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>4803002620</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="17">
         <v>4804003217</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="17">
         <v>4805001597</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="17">
         <v>4806000660</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="17">
         <v>4808002630</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="17">
         <v>4809001799</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="17">
         <v>4810000983</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="17">
         <v>4811003070</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="17">
         <v>4812001100</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="17">
         <v>4813004947</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+      <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="17">
         <v>4814000818</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="17">
         <v>4815001324</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="17">
         <v>4816003412</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="17">
         <v>4817001584</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
+      <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="17">
         <v>4818001770</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+      <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="17">
         <v>4824006657</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
+      <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="17">
         <v>4825007741</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="17">
         <v>4826010458</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>571</v>
       </c>
     </row>
@@ -8756,286 +8769,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>4825143286</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>4825013424</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <f t="shared" ref="A4:A24" si="0">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>4825137941</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>4824007354</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>4825065944</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>4804005662</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>4813004513</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>4823015024</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>4823051777</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>4807014175</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>4801002737</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>4818001900</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>4823011125</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <v>4821009466</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>4821009508</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>4805001847</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>4807002934</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>4821009498</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>4808002711</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>4825010945</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>4824021687</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>4823057137</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>590</v>
       </c>
     </row>
@@ -9058,247 +9071,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>82</v>
       </c>
     </row>
